--- a/docs/ListofProjects.xlsx
+++ b/docs/ListofProjects.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Student ID</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Preferred Language</t>
   </si>
 </sst>
 </file>
@@ -357,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -369,10 +372,10 @@
     <col min="2" max="2" width="42.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="54.77734375" customWidth="1"/>
-    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="5" max="6" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,6 +389,9 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/docs/ListofProjects.xlsx
+++ b/docs/ListofProjects.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\course52311\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17904"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Student ID</t>
   </si>
@@ -42,19 +42,39 @@
   </si>
   <si>
     <t>Preferred Language</t>
+  </si>
+  <si>
+    <t>determining the number of clusters</t>
+  </si>
+  <si>
+    <t>improvement to the common "elbow method" for determining the number of clusters</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Michael Bell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -78,8 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,42 +381,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="54.77734375" customWidth="1"/>
-    <col min="5" max="6" width="34" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>36507473</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/ListofProjects.xlsx
+++ b/docs/ListofProjects.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\course52311\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Student ID</t>
   </si>
@@ -54,17 +49,29 @@
   </si>
   <si>
     <t>Michael Bell</t>
+  </si>
+  <si>
+    <t>Bendel Dan</t>
+  </si>
+  <si>
+    <t>Testing independence using random projections</t>
+  </si>
+  <si>
+    <t>matlab</t>
+  </si>
+  <si>
+    <t>Fainblat Ido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -73,7 +80,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -373,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,23 +388,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>36507473</v>
       </c>
@@ -432,6 +439,34 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>21924816</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>38000014</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
